--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,66 +40,66 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
@@ -118,13 +121,28 @@
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>special</t>
@@ -133,76 +151,76 @@
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -560,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +589,7 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8157894736842105</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>30</v>
@@ -679,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8047945205479452</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7837837837837838</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,13 +871,13 @@
         <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8276762402088773</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>317</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>317</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7241379310344828</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1029,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6078431372549019</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5423728813559322</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5396825396825397</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C13">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5348837209302325</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C14">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5128205128205128</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7887323943661971</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4832214765100671</v>
+        <v>0.475</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7674418604651163</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3928571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.75625</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L18">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3636363636363636</v>
+        <v>0.25</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2619047619047619</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,37 +1597,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1554959785522788</v>
+        <v>0.009817671809256662</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>315</v>
+        <v>2118</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.6411764705882353</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L22">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,37 +1647,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007412181759587496</v>
+        <v>0.008704061895551257</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E23">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F23">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3080</v>
+        <v>3075</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1697,13 @@
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.5815899581589958</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L24">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1697,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1705,13 +1723,13 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.575</v>
+        <v>0.66</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1731,25 +1749,25 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5748299319727891</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1757,13 +1775,13 @@
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.5600000000000001</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1775,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1783,13 +1801,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.5571428571428572</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1801,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1809,13 +1827,13 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5531914893617021</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1827,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1835,13 +1853,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.5966101694915255</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1853,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1861,13 +1879,13 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.4943820224719101</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1879,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1887,13 +1905,13 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.3835616438356164</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1905,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1913,13 +1931,13 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.3076923076923077</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1931,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1939,13 +1957,13 @@
         <v>61</v>
       </c>
       <c r="K34">
-        <v>0.296875</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1957,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1965,25 +1983,181 @@
         <v>62</v>
       </c>
       <c r="K35">
-        <v>0.005950516755402443</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L37">
         <v>19</v>
       </c>
-      <c r="M35">
-        <v>27</v>
-      </c>
-      <c r="N35">
-        <v>0.7</v>
-      </c>
-      <c r="O35">
-        <v>0.3</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>3174</v>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39">
+        <v>0.3125</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L41">
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <v>22</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
